--- a/Downer/29267/F2LSIP ITP 6 - Barriers (reviewed).xlsx
+++ b/Downer/29267/F2LSIP ITP 6 - Barriers (reviewed).xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cfprojects.sharepoint.com/sites/Projects2024/Shared Documents/Projects/24001 TT1 Levin to Foxton/5.0 Construction/3.0 Contract Management/7.0 Quality/1.0 ITP Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://downergroup.sharepoint.com/sites/TSLN01/04/WM/ManawatuConstruction/Manawatu CAT 2 Projects/558021 - SH1 Sth Foxton SIP/11-QA QUALITY/QA5 ITPs/Reviewed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5860E831-9782-411B-8932-FB7961653AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B618505C-62C9-4929-B461-49A7A80321D0}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5860E831-9782-411B-8932-FB7961653AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BD9484-97AE-4E85-95DD-EFD312AC9A93}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="25" r:id="rId1"/>
@@ -653,7 +653,7 @@
     <t>CG</t>
   </si>
   <si>
-    <t xml:space="preserve">Add - Construction Review and Audit Form (RSHDS4) filed in QA File </t>
+    <t xml:space="preserve">Construction Review and Audit Form (RSHDS4) filed in QA File </t>
   </si>
 </sst>
 </file>
@@ -2628,8 +2628,152 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2646,9 +2790,6 @@
     <xf numFmtId="0" fontId="30" fillId="39" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2658,148 +2799,34 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="41" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2880,34 +2907,7 @@
     <xf numFmtId="0" fontId="30" fillId="41" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3266,98 +3266,98 @@
       <selection activeCell="B17" sqref="B17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="121"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
     </row>
-    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="79" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
     </row>
-    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="82">
         <v>558021</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="116"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="74"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="22" t="s">
         <v>6</v>
       </c>
@@ -3365,18 +3365,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="123"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3396,18 +3396,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="126"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3427,22 +3427,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="F7" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="119"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3458,14 +3458,14 @@
       <c r="L7" s="15"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="108"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3481,22 +3481,22 @@
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="91">
         <v>1</v>
       </c>
-      <c r="G9" s="126"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
@@ -3512,18 +3512,18 @@
       <c r="L9" s="15"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="123"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3543,18 +3543,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
@@ -3574,18 +3574,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="2" t="s">
         <v>46</v>
       </c>
@@ -3605,14 +3605,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="106"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="2" t="s">
         <v>50</v>
       </c>
@@ -3628,18 +3628,18 @@
       <c r="L13" s="15"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3659,14 +3659,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="108"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
+    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="2" t="s">
         <v>60</v>
       </c>
@@ -3682,22 +3682,22 @@
       <c r="L15" s="15"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="108">
         <v>45303</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="2" t="s">
         <v>65</v>
       </c>
@@ -3717,20 +3717,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
       <c r="J17" s="23" t="s">
         <v>71</v>
       </c>
@@ -3740,41 +3740,41 @@
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="113"/>
     </row>
-    <row r="19" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+    <row r="19" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="89"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="91" t="s">
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="118"/>
       <c r="L19" s="13" t="s">
         <v>64</v>
       </c>
@@ -3782,26 +3782,26 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="96"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="98" t="s">
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
       <c r="L20" s="3" t="s">
         <v>64</v>
       </c>
@@ -3809,24 +3809,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+    <row r="21" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="101"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="103" t="s">
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
       <c r="L21" s="14" t="s">
         <v>64</v>
       </c>
@@ -3834,9 +3834,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:13" ht="11.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:G15"/>
@@ -3852,29 +3875,6 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39300000000000002"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
@@ -3899,64 +3899,64 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148" t="s">
+      <c r="G1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="141"/>
     </row>
-    <row r="2" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
+    <row r="2" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="160"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
       <c r="I2" s="39" t="s">
         <v>86</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="34" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="34" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>108</v>
       </c>
@@ -3986,10 +3986,10 @@
       <c r="E3" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="158" t="s">
+      <c r="F3" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="159"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="43" t="s">
         <v>32</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="K3" s="43"/>
       <c r="L3" s="45"/>
     </row>
-    <row r="4" spans="1:12" s="34" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="34" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>109</v>
       </c>
@@ -4012,15 +4012,15 @@
       <c r="C4" s="49"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="165"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="138"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="48"/>
       <c r="K4" s="47"/>
       <c r="L4" s="48"/>
     </row>
-    <row r="5" spans="1:12" s="58" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="58" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>110</v>
       </c>
@@ -4036,10 +4036,10 @@
       <c r="E5" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="161"/>
+      <c r="G5" s="134"/>
       <c r="H5" s="32" t="s">
         <v>51</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="64"/>
     </row>
-    <row r="6" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>118</v>
       </c>
@@ -4062,15 +4062,15 @@
       <c r="C6" s="59"/>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="165"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
       <c r="K6" s="47"/>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>119</v>
       </c>
@@ -4086,10 +4086,10 @@
       <c r="E7" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="160" t="s">
+      <c r="F7" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="161"/>
+      <c r="G7" s="134"/>
       <c r="H7" s="33" t="s">
         <v>51</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="K7" s="33"/>
       <c r="L7" s="64"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>141</v>
       </c>
@@ -4118,10 +4118,10 @@
       <c r="E8" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="F8" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="161"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="32" t="s">
         <v>66</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="64"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>142</v>
       </c>
@@ -4150,10 +4150,10 @@
       <c r="E9" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="160" t="s">
+      <c r="F9" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="161"/>
+      <c r="G9" s="134"/>
       <c r="H9" s="33" t="s">
         <v>32</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>143</v>
       </c>
@@ -4182,10 +4182,10 @@
       <c r="E10" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="160" t="s">
+      <c r="F10" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="161"/>
+      <c r="G10" s="134"/>
       <c r="H10" s="33" t="s">
         <v>66</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="46" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>144</v>
       </c>
@@ -4214,10 +4214,10 @@
       <c r="E11" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="163"/>
+      <c r="G11" s="136"/>
       <c r="H11" s="33" t="s">
         <v>51</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="64"/>
     </row>
-    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>145</v>
       </c>
@@ -4246,10 +4246,10 @@
       <c r="E12" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="156" t="s">
+      <c r="F12" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="157"/>
+      <c r="G12" s="130"/>
       <c r="H12" s="55" t="s">
         <v>66</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>154</v>
       </c>
@@ -4278,10 +4278,10 @@
       <c r="E13" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="156" t="s">
+      <c r="F13" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="157"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="55" t="s">
         <v>66</v>
       </c>
@@ -4294,11 +4294,11 @@
       <c r="K13" s="32"/>
       <c r="L13" s="64"/>
     </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="54"/>
       <c r="C14" s="57"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="165" t="s">
         <v>178</v>
       </c>
       <c r="E14" s="57"/>
@@ -4310,7 +4310,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="64"/>
     </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>161</v>
       </c>
@@ -4326,10 +4326,10 @@
       <c r="E15" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="156" t="s">
+      <c r="F15" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="157"/>
+      <c r="G15" s="130"/>
       <c r="H15" s="55" t="s">
         <v>32</v>
       </c>
@@ -4342,28 +4342,28 @@
       <c r="K15" s="32"/>
       <c r="L15" s="64"/>
     </row>
-    <row r="16" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133" t="s">
+    <row r="16" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
+    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="144"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="50"/>
       <c r="G17" s="29" t="s">
         <v>87</v>
@@ -4374,40 +4374,30 @@
       <c r="I17" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="141" t="s">
+      <c r="J17" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="136"/>
-      <c r="L17" s="143"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="152"/>
     </row>
-    <row r="18" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
+    <row r="18" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
       <c r="F18" s="53"/>
       <c r="G18" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="147"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="A17:E18"/>
@@ -4424,6 +4414,16 @@
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39"/>
@@ -4458,10 +4458,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a07732dbeabed3b1f6f40e9b0d46319d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa458ea88e7c8ed8c3c87fd8b1af69c0" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5ba0b7a-c3b7-46e2-a46b-76415d129191">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc488396aafce8f105aa0f243fa0ab32">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" xmlns:ns4="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf06c0961caa0653dafb542b2e70858f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
     <xsd:import namespace="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <xsd:import namespace="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -4474,6 +4495,12 @@
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4502,6 +4529,35 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="50964440-26cf-4116-9cc4-0a071263a07c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4533,6 +4589,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{11e497d4-0200-4ae9-a4de-6fa1623e1595}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4634,23 +4705,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923ADD13-4F4E-4E88-9909-E9EF1692B0DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4666,14 +4726,28 @@
     <ds:schemaRef ds:uri="00a074dd-35c6-464f-8a0d-4890eeb3cc58"/>
     <ds:schemaRef ds:uri="eb05f8a5-c42a-4225-8f04-b90f859b0195"/>
     <ds:schemaRef ds:uri="cfb384ca-3992-46ff-8b76-964f3ce32752"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39400EAD-0734-4523-BECD-BD7480217F99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
